--- a/prog/model/fiting_results2/one_hiden_initial/lc.xlsx
+++ b/prog/model/fiting_results2/one_hiden_initial/lc.xlsx
@@ -492,58 +492,58 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34.51436996459961</v>
+        <v>25.8233585357666</v>
       </c>
       <c r="C2">
-        <v>35.08847808837891</v>
+        <v>27.22580337524414</v>
       </c>
       <c r="D2">
-        <v>33.75504684448242</v>
+        <v>34.61276626586914</v>
       </c>
       <c r="E2">
-        <v>41.3987922668457</v>
+        <v>45.54950714111328</v>
       </c>
       <c r="F2">
-        <v>31.4689826965332</v>
+        <v>39.96048736572266</v>
       </c>
       <c r="G2">
-        <v>28.18008804321289</v>
+        <v>49.5197639465332</v>
       </c>
       <c r="H2">
-        <v>41.33967590332031</v>
+        <v>30.03802108764648</v>
       </c>
       <c r="I2">
-        <v>37.63675308227539</v>
+        <v>25.99493980407715</v>
       </c>
       <c r="J2">
-        <v>45.84384155273438</v>
+        <v>39.96618270874023</v>
       </c>
       <c r="K2">
-        <v>32.29983520507812</v>
+        <v>40.25195693969727</v>
       </c>
       <c r="L2">
-        <v>37.04720306396484</v>
+        <v>44.31464004516602</v>
       </c>
       <c r="M2">
-        <v>34.9034538269043</v>
+        <v>29.31220436096191</v>
       </c>
       <c r="N2">
-        <v>43.648681640625</v>
+        <v>45.34328460693359</v>
       </c>
       <c r="O2">
-        <v>39.51438140869141</v>
+        <v>34.20011901855469</v>
       </c>
       <c r="P2">
-        <v>33.95714569091797</v>
+        <v>31.34343528747559</v>
       </c>
       <c r="Q2">
-        <v>35.07388305664062</v>
+        <v>39.3465461730957</v>
       </c>
       <c r="R2">
-        <v>45.4129753112793</v>
+        <v>47.04069519042969</v>
       </c>
       <c r="S2">
-        <v>50</v>
+        <v>45.211181640625</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -551,58 +551,58 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.958861827850342</v>
+        <v>7.779151916503906</v>
       </c>
       <c r="C3">
-        <v>6.308313846588135</v>
+        <v>11.61952495574951</v>
       </c>
       <c r="D3">
-        <v>6.160982131958008</v>
+        <v>9.883233070373535</v>
       </c>
       <c r="E3">
-        <v>7.026895523071289</v>
+        <v>7.069499492645264</v>
       </c>
       <c r="F3">
-        <v>6.401051998138428</v>
+        <v>13.34081649780273</v>
       </c>
       <c r="G3">
-        <v>14.24064064025879</v>
+        <v>49.46628189086914</v>
       </c>
       <c r="H3">
-        <v>7.613790035247803</v>
+        <v>9.617112159729004</v>
       </c>
       <c r="I3">
-        <v>39.32629776000977</v>
+        <v>10.07857799530029</v>
       </c>
       <c r="J3">
-        <v>6.283826351165771</v>
+        <v>35.58761596679688</v>
       </c>
       <c r="K3">
-        <v>7.242123126983643</v>
+        <v>49.99188613891602</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>7.586527824401855</v>
       </c>
       <c r="M3">
-        <v>40.47812271118164</v>
+        <v>19.00142288208008</v>
       </c>
       <c r="N3">
-        <v>50</v>
+        <v>48.43485641479492</v>
       </c>
       <c r="O3">
-        <v>13.33614253997803</v>
+        <v>50</v>
       </c>
       <c r="P3">
-        <v>50</v>
+        <v>24.09575462341309</v>
       </c>
       <c r="Q3">
-        <v>50</v>
+        <v>49.86702346801758</v>
       </c>
       <c r="R3">
-        <v>50</v>
+        <v>44.89945602416992</v>
       </c>
       <c r="S3">
-        <v>46.76056289672852</v>
+        <v>48.64700317382812</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -610,58 +610,58 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.718858242034912</v>
+        <v>6.490965366363525</v>
       </c>
       <c r="C4">
-        <v>4.447734832763672</v>
+        <v>8.251749992370605</v>
       </c>
       <c r="D4">
-        <v>5.487564086914062</v>
+        <v>7.848015308380127</v>
       </c>
       <c r="E4">
-        <v>5.365066528320312</v>
+        <v>5.698045253753662</v>
       </c>
       <c r="F4">
-        <v>5.421317577362061</v>
+        <v>8.102029800415039</v>
       </c>
       <c r="G4">
-        <v>9.623735427856445</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <v>5.158626556396484</v>
+        <v>6.087135314941406</v>
       </c>
       <c r="I4">
-        <v>6.100076675415039</v>
+        <v>7.020212173461914</v>
       </c>
       <c r="J4">
-        <v>5.740374088287354</v>
+        <v>7.538475513458252</v>
       </c>
       <c r="K4">
-        <v>6.231049060821533</v>
+        <v>50</v>
       </c>
       <c r="L4">
-        <v>49.97520065307617</v>
+        <v>5.500052452087402</v>
       </c>
       <c r="M4">
-        <v>40.03569412231445</v>
+        <v>5.910263538360596</v>
       </c>
       <c r="N4">
-        <v>50</v>
+        <v>48.20547866821289</v>
       </c>
       <c r="O4">
-        <v>6.967992782592773</v>
+        <v>50</v>
       </c>
       <c r="P4">
-        <v>50</v>
+        <v>8.239374160766602</v>
       </c>
       <c r="Q4">
-        <v>50</v>
+        <v>41.07230377197266</v>
       </c>
       <c r="R4">
-        <v>50</v>
+        <v>39.71853637695312</v>
       </c>
       <c r="S4">
-        <v>37.42582702636719</v>
+        <v>48.4898796081543</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -669,58 +669,58 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.428083300590515</v>
+        <v>4.376688480377197</v>
       </c>
       <c r="C5">
-        <v>2.025868654251099</v>
+        <v>5.445676326751709</v>
       </c>
       <c r="D5">
-        <v>0.8913021683692932</v>
+        <v>6.070781707763672</v>
       </c>
       <c r="E5">
-        <v>3.786436796188354</v>
+        <v>4.667562484741211</v>
       </c>
       <c r="F5">
-        <v>0.9263637661933899</v>
+        <v>6.117693901062012</v>
       </c>
       <c r="G5">
-        <v>9.419145584106445</v>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>4.945204257965088</v>
+        <v>4.778213500976562</v>
       </c>
       <c r="I5">
-        <v>4.707138061523438</v>
+        <v>5.520325183868408</v>
       </c>
       <c r="J5">
-        <v>5.518214702606201</v>
+        <v>5.927986621856689</v>
       </c>
       <c r="K5">
-        <v>5.90205717086792</v>
+        <v>49.99166107177734</v>
       </c>
       <c r="L5">
-        <v>50</v>
+        <v>6.306612968444824</v>
       </c>
       <c r="M5">
-        <v>50</v>
+        <v>4.501556396484375</v>
       </c>
       <c r="N5">
-        <v>50</v>
+        <v>38.66418838500977</v>
       </c>
       <c r="O5">
-        <v>8.137897491455078</v>
+        <v>50</v>
       </c>
       <c r="P5">
-        <v>47.96210098266602</v>
+        <v>6.65537166595459</v>
       </c>
       <c r="Q5">
-        <v>44.94118499755859</v>
+        <v>50</v>
       </c>
       <c r="R5">
-        <v>41.59585189819336</v>
+        <v>38.85107803344727</v>
       </c>
       <c r="S5">
-        <v>50</v>
+        <v>46.7641487121582</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -728,58 +728,58 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.034500360488892</v>
+        <v>1.067800998687744</v>
       </c>
       <c r="C6">
-        <v>0.6955819129943848</v>
+        <v>1.437625527381897</v>
       </c>
       <c r="D6">
-        <v>0.75727379322052</v>
+        <v>5.458838939666748</v>
       </c>
       <c r="E6">
-        <v>4.392887592315674</v>
+        <v>3.585905790328979</v>
       </c>
       <c r="F6">
-        <v>0.720339834690094</v>
+        <v>5.843730449676514</v>
       </c>
       <c r="G6">
-        <v>8.234040260314941</v>
+        <v>49.99140167236328</v>
       </c>
       <c r="H6">
-        <v>2.245160341262817</v>
+        <v>4.702216148376465</v>
       </c>
       <c r="I6">
-        <v>3.772848844528198</v>
+        <v>5.361725330352783</v>
       </c>
       <c r="J6">
-        <v>6.384060382843018</v>
+        <v>5.176727771759033</v>
       </c>
       <c r="K6">
-        <v>5.08165168762207</v>
+        <v>50</v>
       </c>
       <c r="L6">
-        <v>49.99160766601562</v>
+        <v>4.963227272033691</v>
       </c>
       <c r="M6">
-        <v>48.13679122924805</v>
+        <v>2.955322980880737</v>
       </c>
       <c r="N6">
         <v>50</v>
       </c>
       <c r="O6">
-        <v>5.575366497039795</v>
+        <v>50</v>
       </c>
       <c r="P6">
-        <v>39.51411437988281</v>
+        <v>5.474895477294922</v>
       </c>
       <c r="Q6">
-        <v>48.9012451171875</v>
+        <v>50</v>
       </c>
       <c r="R6">
-        <v>39.89711761474609</v>
+        <v>38.90811538696289</v>
       </c>
       <c r="S6">
-        <v>48.41824722290039</v>
+        <v>38.9382209777832</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -787,58 +787,58 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6958772540092468</v>
+        <v>2.507992506027222</v>
       </c>
       <c r="C7">
-        <v>0.6932651996612549</v>
+        <v>4.659809589385986</v>
       </c>
       <c r="D7">
-        <v>0.7709755897521973</v>
+        <v>4.224040985107422</v>
       </c>
       <c r="E7">
-        <v>2.133545160293579</v>
+        <v>3.41279125213623</v>
       </c>
       <c r="F7">
-        <v>0.6880958676338196</v>
+        <v>4.459907531738281</v>
       </c>
       <c r="G7">
-        <v>5.860311031341553</v>
+        <v>49.99195098876953</v>
       </c>
       <c r="H7">
-        <v>3.154424905776978</v>
+        <v>3.277581691741943</v>
       </c>
       <c r="I7">
-        <v>2.695543527603149</v>
+        <v>4.439448833465576</v>
       </c>
       <c r="J7">
-        <v>5.237121105194092</v>
+        <v>4.236916542053223</v>
       </c>
       <c r="K7">
-        <v>4.653453350067139</v>
+        <v>50</v>
       </c>
       <c r="L7">
-        <v>38.8914680480957</v>
+        <v>5.082703590393066</v>
       </c>
       <c r="M7">
-        <v>40.89804840087891</v>
+        <v>2.691937446594238</v>
       </c>
       <c r="N7">
         <v>50</v>
       </c>
       <c r="O7">
-        <v>5.622892379760742</v>
+        <v>50</v>
       </c>
       <c r="P7">
-        <v>38.66672134399414</v>
+        <v>4.915626049041748</v>
       </c>
       <c r="Q7">
-        <v>48.60643768310547</v>
+        <v>39.00273513793945</v>
       </c>
       <c r="R7">
-        <v>42.64111709594727</v>
+        <v>38.92821884155273</v>
       </c>
       <c r="S7">
-        <v>49.55931854248047</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -846,58 +846,58 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6932245492935181</v>
+        <v>0.8501772284507751</v>
       </c>
       <c r="C8">
-        <v>0.6934129595756531</v>
+        <v>1.138848543167114</v>
       </c>
       <c r="D8">
-        <v>0.8670502305030823</v>
+        <v>0.7491999864578247</v>
       </c>
       <c r="E8">
-        <v>0.8222560882568359</v>
+        <v>3.442369699478149</v>
       </c>
       <c r="F8">
-        <v>0.6933817267417908</v>
+        <v>1.484189629554749</v>
       </c>
       <c r="G8">
-        <v>1.421908140182495</v>
+        <v>49.93309020996094</v>
       </c>
       <c r="H8">
-        <v>3.371449708938599</v>
+        <v>3.69140100479126</v>
       </c>
       <c r="I8">
-        <v>1.634736776351929</v>
+        <v>4.453348636627197</v>
       </c>
       <c r="J8">
-        <v>3.007066249847412</v>
+        <v>3.884549140930176</v>
       </c>
       <c r="K8">
-        <v>4.394795894622803</v>
+        <v>49.95113372802734</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>5.841322422027588</v>
       </c>
       <c r="M8">
-        <v>17.60675048828125</v>
+        <v>1.392022848129272</v>
       </c>
       <c r="N8">
         <v>50</v>
       </c>
       <c r="O8">
-        <v>5.505519866943359</v>
+        <v>50</v>
       </c>
       <c r="P8">
-        <v>39.49314498901367</v>
+        <v>4.855232715606689</v>
       </c>
       <c r="Q8">
-        <v>50</v>
+        <v>38.8294563293457</v>
       </c>
       <c r="R8">
-        <v>50</v>
+        <v>38.45112991333008</v>
       </c>
       <c r="S8">
-        <v>47.9786491394043</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -905,58 +905,58 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6932029128074646</v>
+        <v>0.8160519599914551</v>
       </c>
       <c r="C9">
-        <v>0.69452965259552</v>
+        <v>0.7312556505203247</v>
       </c>
       <c r="D9">
-        <v>0.6828597784042358</v>
+        <v>4.240484237670898</v>
       </c>
       <c r="E9">
-        <v>0.7053993344306946</v>
+        <v>3.080163478851318</v>
       </c>
       <c r="F9">
-        <v>0.7149267792701721</v>
+        <v>3.274667263031006</v>
       </c>
       <c r="G9">
-        <v>0.7397485971450806</v>
+        <v>38.50698089599609</v>
       </c>
       <c r="H9">
-        <v>6.327639579772949</v>
+        <v>2.985742092132568</v>
       </c>
       <c r="I9">
-        <v>0.7473267316818237</v>
+        <v>4.501089096069336</v>
       </c>
       <c r="J9">
-        <v>1.030365109443665</v>
+        <v>4.278503894805908</v>
       </c>
       <c r="K9">
-        <v>1.796635031700134</v>
+        <v>50</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>5.629989624023438</v>
       </c>
       <c r="M9">
-        <v>4.719709873199463</v>
+        <v>2.852119445800781</v>
       </c>
       <c r="N9">
-        <v>49.93487930297852</v>
+        <v>50</v>
       </c>
       <c r="O9">
-        <v>3.59548020362854</v>
+        <v>50</v>
       </c>
       <c r="P9">
-        <v>18.49549102783203</v>
+        <v>3.457213878631592</v>
       </c>
       <c r="Q9">
-        <v>50</v>
+        <v>40.38650894165039</v>
       </c>
       <c r="R9">
-        <v>47.79988098144531</v>
+        <v>50</v>
       </c>
       <c r="S9">
-        <v>37.88026809692383</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -964,58 +964,58 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.384751319885254</v>
+        <v>0.8939931392669678</v>
       </c>
       <c r="C10">
-        <v>0.6977824568748474</v>
+        <v>0.8112145662307739</v>
       </c>
       <c r="D10">
-        <v>0.7108765244483948</v>
+        <v>2.680878639221191</v>
       </c>
       <c r="E10">
-        <v>0.6988918781280518</v>
+        <v>3.250697135925293</v>
       </c>
       <c r="F10">
-        <v>0.763560950756073</v>
+        <v>3.133004665374756</v>
       </c>
       <c r="G10">
-        <v>0.6969711780548096</v>
+        <v>38.50825119018555</v>
       </c>
       <c r="H10">
-        <v>6.112892150878906</v>
+        <v>0.9071046113967896</v>
       </c>
       <c r="I10">
-        <v>0.7058265209197998</v>
+        <v>4.660191535949707</v>
       </c>
       <c r="J10">
-        <v>3.605831623077393</v>
+        <v>3.980477094650269</v>
       </c>
       <c r="K10">
-        <v>2.642148494720459</v>
+        <v>50</v>
       </c>
       <c r="L10">
-        <v>49.1427116394043</v>
+        <v>5.122804641723633</v>
       </c>
       <c r="M10">
-        <v>4.445366382598877</v>
+        <v>1.482423424720764</v>
       </c>
       <c r="N10">
-        <v>40.89625549316406</v>
+        <v>49.97518920898438</v>
       </c>
       <c r="O10">
-        <v>2.643646001815796</v>
+        <v>50</v>
       </c>
       <c r="P10">
-        <v>9.084456443786621</v>
+        <v>3.229411363601685</v>
       </c>
       <c r="Q10">
-        <v>50</v>
+        <v>38.56423187255859</v>
       </c>
       <c r="R10">
-        <v>38.9274787902832</v>
+        <v>50</v>
       </c>
       <c r="S10">
-        <v>39.56679534912109</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1023,58 +1023,58 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6940678358078003</v>
+        <v>0.7622997760772705</v>
       </c>
       <c r="C11">
-        <v>0.6944921612739563</v>
+        <v>0.6935487985610962</v>
       </c>
       <c r="D11">
-        <v>3.434151887893677</v>
+        <v>5.031975746154785</v>
       </c>
       <c r="E11">
-        <v>0.689200758934021</v>
+        <v>5.053072929382324</v>
       </c>
       <c r="F11">
-        <v>0.7351363897323608</v>
+        <v>4.163830280303955</v>
       </c>
       <c r="G11">
-        <v>0.8025841116905212</v>
+        <v>37.026123046875</v>
       </c>
       <c r="H11">
-        <v>4.57418155670166</v>
+        <v>2.660885095596313</v>
       </c>
       <c r="I11">
-        <v>0.7822312712669373</v>
+        <v>3.446998596191406</v>
       </c>
       <c r="J11">
-        <v>1.280197381973267</v>
+        <v>6.071151733398438</v>
       </c>
       <c r="K11">
-        <v>0.9602780938148499</v>
+        <v>50</v>
       </c>
       <c r="L11">
-        <v>43.89369201660156</v>
+        <v>2.27034068107605</v>
       </c>
       <c r="M11">
-        <v>4.401949882507324</v>
+        <v>3.16074275970459</v>
       </c>
       <c r="N11">
-        <v>45.43777084350586</v>
+        <v>39.9063606262207</v>
       </c>
       <c r="O11">
-        <v>4.475532531738281</v>
+        <v>49.4682731628418</v>
       </c>
       <c r="P11">
-        <v>4.435272216796875</v>
+        <v>3.314638614654541</v>
       </c>
       <c r="Q11">
-        <v>50</v>
+        <v>37.0535888671875</v>
       </c>
       <c r="R11">
-        <v>39.01531982421875</v>
+        <v>49.38602066040039</v>
       </c>
       <c r="S11">
-        <v>49.91652679443359</v>
+        <v>36.55406951904297</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1082,58 +1082,58 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6941785216331482</v>
+        <v>1.994970202445984</v>
       </c>
       <c r="C12">
-        <v>0.6769161820411682</v>
+        <v>0.6967662572860718</v>
       </c>
       <c r="D12">
-        <v>2.500895738601685</v>
+        <v>4.982254981994629</v>
       </c>
       <c r="E12">
-        <v>0.6887295842170715</v>
+        <v>4.505632877349854</v>
       </c>
       <c r="F12">
-        <v>1.068478941917419</v>
+        <v>3.135873556137085</v>
       </c>
       <c r="G12">
-        <v>0.755361020565033</v>
+        <v>21.4089241027832</v>
       </c>
       <c r="H12">
-        <v>4.481480121612549</v>
+        <v>2.509113073348999</v>
       </c>
       <c r="I12">
-        <v>0.7534623742103577</v>
+        <v>2.415293216705322</v>
       </c>
       <c r="J12">
-        <v>1.043043494224548</v>
+        <v>5.033243656158447</v>
       </c>
       <c r="K12">
-        <v>3.362796068191528</v>
+        <v>45.84206390380859</v>
       </c>
       <c r="L12">
-        <v>36.18498229980469</v>
+        <v>2.45261812210083</v>
       </c>
       <c r="M12">
-        <v>2.308082103729248</v>
+        <v>1.28574526309967</v>
       </c>
       <c r="N12">
-        <v>38.53316497802734</v>
+        <v>6.789095401763916</v>
       </c>
       <c r="O12">
-        <v>2.894750595092773</v>
+        <v>47.14820861816406</v>
       </c>
       <c r="P12">
-        <v>5.548584938049316</v>
+        <v>4.549010276794434</v>
       </c>
       <c r="Q12">
-        <v>46.04758834838867</v>
+        <v>50</v>
       </c>
       <c r="R12">
-        <v>40.13421249389648</v>
+        <v>49.37764358520508</v>
       </c>
       <c r="S12">
-        <v>49.50043106079102</v>
+        <v>40.7686767578125</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1141,58 +1141,58 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6950314044952393</v>
+        <v>0.7469346523284912</v>
       </c>
       <c r="C13">
-        <v>0.706653356552124</v>
+        <v>0.783542811870575</v>
       </c>
       <c r="D13">
-        <v>1.950583219528198</v>
+        <v>4.809920787811279</v>
       </c>
       <c r="E13">
-        <v>0.7211223244667053</v>
+        <v>3.822633028030396</v>
       </c>
       <c r="F13">
-        <v>1.306651592254639</v>
+        <v>0.8277060985565186</v>
       </c>
       <c r="G13">
-        <v>0.6994878649711609</v>
+        <v>11.58566474914551</v>
       </c>
       <c r="H13">
-        <v>3.914415597915649</v>
+        <v>1.442247033119202</v>
       </c>
       <c r="I13">
-        <v>0.6816983222961426</v>
+        <v>2.604522466659546</v>
       </c>
       <c r="J13">
-        <v>1.997287392616272</v>
+        <v>4.784166812896729</v>
       </c>
       <c r="K13">
-        <v>2.576285839080811</v>
+        <v>22.93900680541992</v>
       </c>
       <c r="L13">
-        <v>4.46535062789917</v>
+        <v>0.8920403122901917</v>
       </c>
       <c r="M13">
-        <v>0.8694159984588623</v>
+        <v>1.090305328369141</v>
       </c>
       <c r="N13">
-        <v>38.75152587890625</v>
+        <v>7.223587512969971</v>
       </c>
       <c r="O13">
-        <v>1.144980311393738</v>
+        <v>44.44892501831055</v>
       </c>
       <c r="P13">
-        <v>5.49647855758667</v>
+        <v>5.614776611328125</v>
       </c>
       <c r="Q13">
-        <v>18.5248908996582</v>
+        <v>50</v>
       </c>
       <c r="R13">
-        <v>41.03816223144531</v>
+        <v>23.07384872436523</v>
       </c>
       <c r="S13">
-        <v>48.8672981262207</v>
+        <v>20.11578178405762</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1200,58 +1200,58 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6933313608169556</v>
+        <v>0.6997001767158508</v>
       </c>
       <c r="C14">
-        <v>0.7011643052101135</v>
+        <v>2.334726333618164</v>
       </c>
       <c r="D14">
-        <v>0.7769787907600403</v>
+        <v>4.506944179534912</v>
       </c>
       <c r="E14">
-        <v>0.7328812479972839</v>
+        <v>1.927888154983521</v>
       </c>
       <c r="F14">
-        <v>0.835195004940033</v>
+        <v>0.6947426199913025</v>
       </c>
       <c r="G14">
-        <v>0.6774665117263794</v>
+        <v>7.550545692443848</v>
       </c>
       <c r="H14">
-        <v>3.09156608581543</v>
+        <v>3.389529466629028</v>
       </c>
       <c r="I14">
-        <v>0.9798420667648315</v>
+        <v>2.344751119613647</v>
       </c>
       <c r="J14">
-        <v>0.7048937082290649</v>
+        <v>4.429009914398193</v>
       </c>
       <c r="K14">
-        <v>1.840728998184204</v>
+        <v>4.310189723968506</v>
       </c>
       <c r="L14">
-        <v>3.576695203781128</v>
+        <v>4.273979663848877</v>
       </c>
       <c r="M14">
-        <v>0.705533504486084</v>
+        <v>4.964621067047119</v>
       </c>
       <c r="N14">
-        <v>38.82780075073242</v>
+        <v>5.993534564971924</v>
       </c>
       <c r="O14">
-        <v>0.7360268831253052</v>
+        <v>40.80964660644531</v>
       </c>
       <c r="P14">
-        <v>4.499017238616943</v>
+        <v>5.585465908050537</v>
       </c>
       <c r="Q14">
-        <v>3.954368591308594</v>
+        <v>50</v>
       </c>
       <c r="R14">
-        <v>48.26371002197266</v>
+        <v>9.268083572387695</v>
       </c>
       <c r="S14">
-        <v>48.3065185546875</v>
+        <v>3.650084733963013</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1259,58 +1259,58 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6932427883148193</v>
+        <v>0.6937363147735596</v>
       </c>
       <c r="C15">
-        <v>0.6933028697967529</v>
+        <v>1.055341839790344</v>
       </c>
       <c r="D15">
-        <v>0.7246161103248596</v>
+        <v>1.786603927612305</v>
       </c>
       <c r="E15">
-        <v>0.6702313423156738</v>
+        <v>2.248443603515625</v>
       </c>
       <c r="F15">
-        <v>0.694635272026062</v>
+        <v>1.447956323623657</v>
       </c>
       <c r="G15">
-        <v>0.6973763108253479</v>
+        <v>6.867416381835938</v>
       </c>
       <c r="H15">
-        <v>1.652812242507935</v>
+        <v>2.726143360137939</v>
       </c>
       <c r="I15">
-        <v>2.345932960510254</v>
+        <v>4.099697113037109</v>
       </c>
       <c r="J15">
-        <v>0.7581499218940735</v>
+        <v>4.356631278991699</v>
       </c>
       <c r="K15">
-        <v>0.7257248759269714</v>
+        <v>3.912544727325439</v>
       </c>
       <c r="L15">
-        <v>3.583133220672607</v>
+        <v>1.094715118408203</v>
       </c>
       <c r="M15">
-        <v>0.8180167675018311</v>
+        <v>4.092655658721924</v>
       </c>
       <c r="N15">
-        <v>32.91338729858398</v>
+        <v>5.663232326507568</v>
       </c>
       <c r="O15">
-        <v>0.6954777240753174</v>
+        <v>26.77130699157715</v>
       </c>
       <c r="P15">
-        <v>3.320357322692871</v>
+        <v>6.437572479248047</v>
       </c>
       <c r="Q15">
-        <v>7.274114608764648</v>
+        <v>49.93331909179688</v>
       </c>
       <c r="R15">
-        <v>23.48719024658203</v>
+        <v>5.301620483398438</v>
       </c>
       <c r="S15">
-        <v>45.48678207397461</v>
+        <v>5.393654346466064</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1318,58 +1318,58 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6930219531059265</v>
+        <v>2.658230066299438</v>
       </c>
       <c r="C16">
-        <v>0.6932389140129089</v>
+        <v>1.625515818595886</v>
       </c>
       <c r="D16">
-        <v>0.695199191570282</v>
+        <v>3.303843975067139</v>
       </c>
       <c r="E16">
-        <v>0.6931102871894836</v>
+        <v>1.039687156677246</v>
       </c>
       <c r="F16">
-        <v>0.696989119052887</v>
+        <v>1.728099703788757</v>
       </c>
       <c r="G16">
-        <v>0.671535313129425</v>
+        <v>6.176877975463867</v>
       </c>
       <c r="H16">
-        <v>0.8597118854522705</v>
+        <v>0.7170419692993164</v>
       </c>
       <c r="I16">
-        <v>0.9668748378753662</v>
+        <v>4.707009315490723</v>
       </c>
       <c r="J16">
-        <v>0.8196942210197449</v>
+        <v>3.895334243774414</v>
       </c>
       <c r="K16">
-        <v>0.6892552971839905</v>
+        <v>5.365462779998779</v>
       </c>
       <c r="L16">
-        <v>4.294258117675781</v>
+        <v>7.702125549316406</v>
       </c>
       <c r="M16">
-        <v>0.7042959332466125</v>
+        <v>4.025269985198975</v>
       </c>
       <c r="N16">
-        <v>7.835724353790283</v>
+        <v>5.638853073120117</v>
       </c>
       <c r="O16">
-        <v>1.002598524093628</v>
+        <v>3.244359493255615</v>
       </c>
       <c r="P16">
-        <v>0.7541502714157104</v>
+        <v>5.683571338653564</v>
       </c>
       <c r="Q16">
-        <v>5.382285118103027</v>
+        <v>40.35466384887695</v>
       </c>
       <c r="R16">
-        <v>5.83735179901123</v>
+        <v>5.034641742706299</v>
       </c>
       <c r="S16">
-        <v>37.57170104980469</v>
+        <v>5.811617374420166</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1377,58 +1377,58 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6927686929702759</v>
+        <v>0.7244177460670471</v>
       </c>
       <c r="C17">
-        <v>0.6931430101394653</v>
+        <v>1.054441213607788</v>
       </c>
       <c r="D17">
-        <v>0.7221893072128296</v>
+        <v>2.41968560218811</v>
       </c>
       <c r="E17">
-        <v>0.6934971809387207</v>
+        <v>0.7824443578720093</v>
       </c>
       <c r="F17">
-        <v>0.6820104122161865</v>
+        <v>1.357789039611816</v>
       </c>
       <c r="G17">
-        <v>0.6942296624183655</v>
+        <v>6.210804462432861</v>
       </c>
       <c r="H17">
-        <v>0.780363142490387</v>
+        <v>0.7303712964057922</v>
       </c>
       <c r="I17">
-        <v>0.7684611678123474</v>
+        <v>3.642106056213379</v>
       </c>
       <c r="J17">
-        <v>0.69683837890625</v>
+        <v>3.352487087249756</v>
       </c>
       <c r="K17">
-        <v>0.7088308930397034</v>
+        <v>5.597048282623291</v>
       </c>
       <c r="L17">
-        <v>4.824638366699219</v>
+        <v>4.066936016082764</v>
       </c>
       <c r="M17">
-        <v>0.6963551640510559</v>
+        <v>4.31257438659668</v>
       </c>
       <c r="N17">
-        <v>6.75736665725708</v>
+        <v>5.519659996032715</v>
       </c>
       <c r="O17">
-        <v>0.981823742389679</v>
+        <v>4.014031887054443</v>
       </c>
       <c r="P17">
-        <v>0.9960052967071533</v>
+        <v>3.739130258560181</v>
       </c>
       <c r="Q17">
-        <v>7.752351760864258</v>
+        <v>42.25627899169922</v>
       </c>
       <c r="R17">
-        <v>5.470022201538086</v>
+        <v>6.174956798553467</v>
       </c>
       <c r="S17">
-        <v>0.9544699788093567</v>
+        <v>6.242259979248047</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1436,58 +1436,58 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6937874555587769</v>
+        <v>3.167434930801392</v>
       </c>
       <c r="C18">
-        <v>0.6931157112121582</v>
+        <v>0.7184876203536987</v>
       </c>
       <c r="D18">
-        <v>0.6990659832954407</v>
+        <v>2.089826107025146</v>
       </c>
       <c r="E18">
-        <v>0.7076041698455811</v>
+        <v>0.8021568655967712</v>
       </c>
       <c r="F18">
-        <v>0.6938630938529968</v>
+        <v>1.644393801689148</v>
       </c>
       <c r="G18">
-        <v>1.419376969337463</v>
+        <v>6.754859924316406</v>
       </c>
       <c r="H18">
-        <v>0.6977333426475525</v>
+        <v>0.718681812286377</v>
       </c>
       <c r="I18">
-        <v>0.7075505256652832</v>
+        <v>2.455350399017334</v>
       </c>
       <c r="J18">
-        <v>0.6815873980522156</v>
+        <v>0.8865010738372803</v>
       </c>
       <c r="K18">
-        <v>0.7813874483108521</v>
+        <v>7.319758892059326</v>
       </c>
       <c r="L18">
-        <v>2.920353412628174</v>
+        <v>5.709884166717529</v>
       </c>
       <c r="M18">
-        <v>0.6940059065818787</v>
+        <v>4.451072692871094</v>
       </c>
       <c r="N18">
-        <v>6.271636009216309</v>
+        <v>8.363852500915527</v>
       </c>
       <c r="O18">
-        <v>0.768064558506012</v>
+        <v>6.455263614654541</v>
       </c>
       <c r="P18">
-        <v>0.9322630167007446</v>
+        <v>5.748903751373291</v>
       </c>
       <c r="Q18">
-        <v>5.239646434783936</v>
+        <v>38.44655227661133</v>
       </c>
       <c r="R18">
-        <v>4.821300506591797</v>
+        <v>5.998644351959229</v>
       </c>
       <c r="S18">
-        <v>2.563232183456421</v>
+        <v>6.141388416290283</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1495,58 +1495,58 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6931544542312622</v>
+        <v>1.275444626808167</v>
       </c>
       <c r="C19">
-        <v>0.6930780410766602</v>
+        <v>1.190264463424683</v>
       </c>
       <c r="D19">
-        <v>0.6959403157234192</v>
+        <v>1.639054298400879</v>
       </c>
       <c r="E19">
-        <v>0.6826894879341125</v>
+        <v>1.510410666465759</v>
       </c>
       <c r="F19">
-        <v>0.7278119325637817</v>
+        <v>1.510120630264282</v>
       </c>
       <c r="G19">
-        <v>0.8795258402824402</v>
+        <v>5.824143409729004</v>
       </c>
       <c r="H19">
-        <v>0.7186930775642395</v>
+        <v>0.8785200715065002</v>
       </c>
       <c r="I19">
-        <v>0.6851904392242432</v>
+        <v>1.11992335319519</v>
       </c>
       <c r="J19">
-        <v>0.710338294506073</v>
+        <v>3.868450164794922</v>
       </c>
       <c r="K19">
-        <v>0.7491552829742432</v>
+        <v>5.896344184875488</v>
       </c>
       <c r="L19">
-        <v>4.44470739364624</v>
+        <v>4.070255756378174</v>
       </c>
       <c r="M19">
-        <v>0.6944800019264221</v>
+        <v>4.277862548828125</v>
       </c>
       <c r="N19">
-        <v>6.493716716766357</v>
+        <v>5.833118915557861</v>
       </c>
       <c r="O19">
-        <v>0.691947340965271</v>
+        <v>4.684949398040771</v>
       </c>
       <c r="P19">
-        <v>0.7225189805030823</v>
+        <v>5.445724487304688</v>
       </c>
       <c r="Q19">
-        <v>4.943102836608887</v>
+        <v>49.15260696411133</v>
       </c>
       <c r="R19">
-        <v>4.393351078033447</v>
+        <v>5.697986125946045</v>
       </c>
       <c r="S19">
-        <v>1.251233577728271</v>
+        <v>10.29521465301514</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1554,58 +1554,58 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6931530237197876</v>
+        <v>0.7639796733856201</v>
       </c>
       <c r="C20">
-        <v>0.6929839253425598</v>
+        <v>0.7005499601364136</v>
       </c>
       <c r="D20">
-        <v>0.6930920481681824</v>
+        <v>0.7123530507087708</v>
       </c>
       <c r="E20">
-        <v>0.6745739579200745</v>
+        <v>1.596153855323792</v>
       </c>
       <c r="F20">
-        <v>0.6937347054481506</v>
+        <v>3.540659189224243</v>
       </c>
       <c r="G20">
-        <v>0.6854749917984009</v>
+        <v>5.514913558959961</v>
       </c>
       <c r="H20">
-        <v>0.7479926347732544</v>
+        <v>2.542481660842896</v>
       </c>
       <c r="I20">
-        <v>0.6942046284675598</v>
+        <v>1.469923257827759</v>
       </c>
       <c r="J20">
-        <v>0.6966649293899536</v>
+        <v>3.836870670318604</v>
       </c>
       <c r="K20">
-        <v>0.6962325572967529</v>
+        <v>5.999908447265625</v>
       </c>
       <c r="L20">
-        <v>3.639714002609253</v>
+        <v>5.057794570922852</v>
       </c>
       <c r="M20">
-        <v>0.6952179670333862</v>
+        <v>2.913837432861328</v>
       </c>
       <c r="N20">
-        <v>5.682174682617188</v>
+        <v>8.0469970703125</v>
       </c>
       <c r="O20">
-        <v>0.6950088143348694</v>
+        <v>7.134835720062256</v>
       </c>
       <c r="P20">
-        <v>0.6994686722755432</v>
+        <v>4.962179183959961</v>
       </c>
       <c r="Q20">
-        <v>4.450844764709473</v>
+        <v>49.64722061157227</v>
       </c>
       <c r="R20">
-        <v>3.632649898529053</v>
+        <v>4.874728679656982</v>
       </c>
       <c r="S20">
-        <v>0.8375638127326965</v>
+        <v>6.256531238555908</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1613,58 +1613,58 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6931482553482056</v>
+        <v>1.039808511734009</v>
       </c>
       <c r="C21">
-        <v>0.6928392052650452</v>
+        <v>0.7400155067443848</v>
       </c>
       <c r="D21">
-        <v>0.6928022503852844</v>
+        <v>0.7011849880218506</v>
       </c>
       <c r="E21">
-        <v>0.69304358959198</v>
+        <v>1.418471217155457</v>
       </c>
       <c r="F21">
-        <v>0.6930151581764221</v>
+        <v>3.481523513793945</v>
       </c>
       <c r="G21">
-        <v>0.6965771913528442</v>
+        <v>4.706629753112793</v>
       </c>
       <c r="H21">
-        <v>0.6958436369895935</v>
+        <v>3.664446353912354</v>
       </c>
       <c r="I21">
-        <v>0.692370593547821</v>
+        <v>4.271262645721436</v>
       </c>
       <c r="J21">
-        <v>0.7042852640151978</v>
+        <v>4.062395095825195</v>
       </c>
       <c r="K21">
-        <v>0.6777240633964539</v>
+        <v>5.844647407531738</v>
       </c>
       <c r="L21">
-        <v>0.7551320195198059</v>
+        <v>3.856701850891113</v>
       </c>
       <c r="M21">
-        <v>0.6956530213356018</v>
+        <v>4.696256637573242</v>
       </c>
       <c r="N21">
-        <v>5.494579792022705</v>
+        <v>6.108463764190674</v>
       </c>
       <c r="O21">
-        <v>0.7702715992927551</v>
+        <v>13.76395511627197</v>
       </c>
       <c r="P21">
-        <v>0.6945562958717346</v>
+        <v>5.607978820800781</v>
       </c>
       <c r="Q21">
-        <v>3.076001405715942</v>
+        <v>48.79215240478516</v>
       </c>
       <c r="R21">
-        <v>2.433215618133545</v>
+        <v>6.040441989898682</v>
       </c>
       <c r="S21">
-        <v>0.69070965051651</v>
+        <v>7.262479305267334</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1672,58 +1672,58 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6931477785110474</v>
+        <v>0.8007766008377075</v>
       </c>
       <c r="C22">
-        <v>0.6926895976066589</v>
+        <v>0.6933753490447998</v>
       </c>
       <c r="D22">
-        <v>0.6930148601531982</v>
+        <v>2.850156307220459</v>
       </c>
       <c r="E22">
-        <v>0.6949867010116577</v>
+        <v>1.037064552307129</v>
       </c>
       <c r="F22">
-        <v>0.6940511465072632</v>
+        <v>3.083338737487793</v>
       </c>
       <c r="G22">
-        <v>0.6938785314559937</v>
+        <v>2.002731084823608</v>
       </c>
       <c r="H22">
-        <v>0.6930333971977234</v>
+        <v>4.252522468566895</v>
       </c>
       <c r="I22">
-        <v>0.691554069519043</v>
+        <v>3.650692939758301</v>
       </c>
       <c r="J22">
-        <v>0.6775696277618408</v>
+        <v>3.945789813995361</v>
       </c>
       <c r="K22">
-        <v>0.6747517585754395</v>
+        <v>5.93408727645874</v>
       </c>
       <c r="L22">
-        <v>1.007617235183716</v>
+        <v>2.818272113800049</v>
       </c>
       <c r="M22">
-        <v>0.6895647048950195</v>
+        <v>4.886475086212158</v>
       </c>
       <c r="N22">
-        <v>5.704770088195801</v>
+        <v>6.757820606231689</v>
       </c>
       <c r="O22">
-        <v>0.7030935883522034</v>
+        <v>6.168437004089355</v>
       </c>
       <c r="P22">
-        <v>0.7761553525924683</v>
+        <v>4.750900745391846</v>
       </c>
       <c r="Q22">
-        <v>1.808321118354797</v>
+        <v>50</v>
       </c>
       <c r="R22">
-        <v>1.093770980834961</v>
+        <v>6.595925807952881</v>
       </c>
       <c r="S22">
-        <v>0.7008258104324341</v>
+        <v>5.265506267547607</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -1731,58 +1731,58 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7018912434577942</v>
+        <v>0.808678925037384</v>
       </c>
       <c r="C23">
-        <v>0.6927744746208191</v>
+        <v>0.7265599370002747</v>
       </c>
       <c r="D23">
-        <v>0.691775381565094</v>
+        <v>1.27315080165863</v>
       </c>
       <c r="E23">
-        <v>0.6933850049972534</v>
+        <v>0.8124651908874512</v>
       </c>
       <c r="F23">
-        <v>0.6931287050247192</v>
+        <v>2.900532245635986</v>
       </c>
       <c r="G23">
-        <v>0.6968094706535339</v>
+        <v>1.096572756767273</v>
       </c>
       <c r="H23">
-        <v>0.6996927857398987</v>
+        <v>4.000470161437988</v>
       </c>
       <c r="I23">
-        <v>0.6919292211532593</v>
+        <v>2.107395648956299</v>
       </c>
       <c r="J23">
-        <v>0.9183179140090942</v>
+        <v>3.362165451049805</v>
       </c>
       <c r="K23">
-        <v>0.6776596307754517</v>
+        <v>5.915529727935791</v>
       </c>
       <c r="L23">
-        <v>0.8213201761245728</v>
+        <v>3.671722412109375</v>
       </c>
       <c r="M23">
-        <v>0.6930869817733765</v>
+        <v>5.189550876617432</v>
       </c>
       <c r="N23">
-        <v>4.673774719238281</v>
+        <v>6.77790641784668</v>
       </c>
       <c r="O23">
-        <v>0.6906471848487854</v>
+        <v>6.457159996032715</v>
       </c>
       <c r="P23">
-        <v>0.6937640905380249</v>
+        <v>5.686089038848877</v>
       </c>
       <c r="Q23">
-        <v>3.011602163314819</v>
+        <v>50</v>
       </c>
       <c r="R23">
-        <v>3.653207302093506</v>
+        <v>7.731858730316162</v>
       </c>
       <c r="S23">
-        <v>0.7134594321250916</v>
+        <v>5.375243186950684</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -1790,58 +1790,58 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6931496262550354</v>
+        <v>0.6731879711151123</v>
       </c>
       <c r="C24">
-        <v>0.6927433609962463</v>
+        <v>0.69954514503479</v>
       </c>
       <c r="D24">
-        <v>0.6778692007064819</v>
+        <v>2.474457263946533</v>
       </c>
       <c r="E24">
-        <v>0.6930717825889587</v>
+        <v>0.7274754643440247</v>
       </c>
       <c r="F24">
-        <v>0.6976841688156128</v>
+        <v>1.376341581344604</v>
       </c>
       <c r="G24">
-        <v>0.6964727640151978</v>
+        <v>3.835173845291138</v>
       </c>
       <c r="H24">
-        <v>0.7076112627983093</v>
+        <v>3.578309297561646</v>
       </c>
       <c r="I24">
-        <v>0.6931388378143311</v>
+        <v>0.7775607705116272</v>
       </c>
       <c r="J24">
-        <v>0.7001973986625671</v>
+        <v>1.777233839035034</v>
       </c>
       <c r="K24">
-        <v>0.6987283825874329</v>
+        <v>6.429329395294189</v>
       </c>
       <c r="L24">
-        <v>0.7108291983604431</v>
+        <v>4.806891441345215</v>
       </c>
       <c r="M24">
-        <v>0.6931252479553223</v>
+        <v>7.450904846191406</v>
       </c>
       <c r="N24">
-        <v>4.263238906860352</v>
+        <v>6.218180656433105</v>
       </c>
       <c r="O24">
-        <v>0.8281328678131104</v>
+        <v>5.876490116119385</v>
       </c>
       <c r="P24">
-        <v>0.6932978630065918</v>
+        <v>5.874473094940186</v>
       </c>
       <c r="Q24">
-        <v>1.083632588386536</v>
+        <v>50</v>
       </c>
       <c r="R24">
-        <v>0.739296019077301</v>
+        <v>7.315909385681152</v>
       </c>
       <c r="S24">
-        <v>0.7765592932701111</v>
+        <v>5.597893238067627</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -1849,58 +1849,58 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6934410333633423</v>
+        <v>0.6788657307624817</v>
       </c>
       <c r="C25">
-        <v>0.6927294135093689</v>
+        <v>0.6998274922370911</v>
       </c>
       <c r="D25">
-        <v>0.6715589761734009</v>
+        <v>1.236896634101868</v>
       </c>
       <c r="E25">
-        <v>0.6929376721382141</v>
+        <v>0.8270164728164673</v>
       </c>
       <c r="F25">
-        <v>0.7177175879478455</v>
+        <v>2.273414134979248</v>
       </c>
       <c r="G25">
-        <v>0.693303108215332</v>
+        <v>5.028026580810547</v>
       </c>
       <c r="H25">
-        <v>0.6936717629432678</v>
+        <v>1.717389106750488</v>
       </c>
       <c r="I25">
-        <v>0.6829022765159607</v>
+        <v>0.7178388237953186</v>
       </c>
       <c r="J25">
-        <v>0.7052375674247742</v>
+        <v>0.7618083953857422</v>
       </c>
       <c r="K25">
-        <v>0.6797114610671997</v>
+        <v>6.637254238128662</v>
       </c>
       <c r="L25">
-        <v>0.7084698081016541</v>
+        <v>4.782092094421387</v>
       </c>
       <c r="M25">
-        <v>1.258875966072083</v>
+        <v>8.330713272094727</v>
       </c>
       <c r="N25">
-        <v>4.958716869354248</v>
+        <v>6.871660709381104</v>
       </c>
       <c r="O25">
-        <v>0.7030121684074402</v>
+        <v>6.449902534484863</v>
       </c>
       <c r="P25">
-        <v>0.693378210067749</v>
+        <v>6.059278964996338</v>
       </c>
       <c r="Q25">
-        <v>0.8365079760551453</v>
+        <v>49.99188613891602</v>
       </c>
       <c r="R25">
-        <v>0.7187554836273193</v>
+        <v>6.494112014770508</v>
       </c>
       <c r="S25">
-        <v>0.697637140750885</v>
+        <v>5.8507080078125</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -1908,58 +1908,58 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.6934834718704224</v>
+        <v>0.6931484341621399</v>
       </c>
       <c r="C26">
-        <v>0.6927811503410339</v>
+        <v>1.178271055221558</v>
       </c>
       <c r="D26">
-        <v>0.6854236125946045</v>
+        <v>0.6935282945632935</v>
       </c>
       <c r="E26">
-        <v>0.6927369832992554</v>
+        <v>0.7901824116706848</v>
       </c>
       <c r="F26">
-        <v>0.708381712436676</v>
+        <v>3.451873540878296</v>
       </c>
       <c r="G26">
-        <v>0.6813931465148926</v>
+        <v>4.256276607513428</v>
       </c>
       <c r="H26">
-        <v>0.6972692608833313</v>
+        <v>1.669739484786987</v>
       </c>
       <c r="I26">
-        <v>0.6940132975578308</v>
+        <v>0.6978716254234314</v>
       </c>
       <c r="J26">
-        <v>0.6874735951423645</v>
+        <v>0.6821860671043396</v>
       </c>
       <c r="K26">
-        <v>0.6653112769126892</v>
+        <v>6.505284786224365</v>
       </c>
       <c r="L26">
-        <v>0.6953559517860413</v>
+        <v>5.338416576385498</v>
       </c>
       <c r="M26">
-        <v>0.6964455842971802</v>
+        <v>6.803919792175293</v>
       </c>
       <c r="N26">
-        <v>2.599157333374023</v>
+        <v>5.883814811706543</v>
       </c>
       <c r="O26">
-        <v>0.6942113041877747</v>
+        <v>6.297948360443115</v>
       </c>
       <c r="P26">
-        <v>0.6930354833602905</v>
+        <v>5.833395481109619</v>
       </c>
       <c r="Q26">
-        <v>0.777978777885437</v>
+        <v>49.93337631225586</v>
       </c>
       <c r="R26">
-        <v>0.7366306781768799</v>
+        <v>6.298349380493164</v>
       </c>
       <c r="S26">
-        <v>0.7758562564849854</v>
+        <v>5.814478397369385</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -1967,58 +1967,58 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.6933196187019348</v>
+        <v>0.6933064460754395</v>
       </c>
       <c r="C27">
-        <v>0.6928520202636719</v>
+        <v>1.516990303993225</v>
       </c>
       <c r="D27">
-        <v>0.6931012868881226</v>
+        <v>0.695809543132782</v>
       </c>
       <c r="E27">
-        <v>0.6927337646484375</v>
+        <v>0.7978156805038452</v>
       </c>
       <c r="F27">
-        <v>0.6931041479110718</v>
+        <v>1.440234065055847</v>
       </c>
       <c r="G27">
-        <v>0.6723735332489014</v>
+        <v>3.405133485794067</v>
       </c>
       <c r="H27">
-        <v>0.6972905397415161</v>
+        <v>5.454826831817627</v>
       </c>
       <c r="I27">
-        <v>0.6864611506462097</v>
+        <v>0.6777350306510925</v>
       </c>
       <c r="J27">
-        <v>0.805328369140625</v>
+        <v>4.034939765930176</v>
       </c>
       <c r="K27">
-        <v>0.6732848882675171</v>
+        <v>5.34400749206543</v>
       </c>
       <c r="L27">
-        <v>0.688769519329071</v>
+        <v>5.464451313018799</v>
       </c>
       <c r="M27">
-        <v>0.6958780288696289</v>
+        <v>6.037479877471924</v>
       </c>
       <c r="N27">
-        <v>3.290847301483154</v>
+        <v>6.036730289459229</v>
       </c>
       <c r="O27">
-        <v>0.6939933896064758</v>
+        <v>8.708920478820801</v>
       </c>
       <c r="P27">
-        <v>0.6927677392959595</v>
+        <v>4.560458660125732</v>
       </c>
       <c r="Q27">
-        <v>0.6935426592826843</v>
+        <v>50</v>
       </c>
       <c r="R27">
-        <v>0.6852403283119202</v>
+        <v>6.058404922485352</v>
       </c>
       <c r="S27">
-        <v>0.7001391649246216</v>
+        <v>5.653422355651855</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2026,58 +2026,58 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.6932427287101746</v>
+        <v>0.6934405565261841</v>
       </c>
       <c r="C28">
-        <v>0.6929836273193359</v>
+        <v>0.6934518218040466</v>
       </c>
       <c r="D28">
-        <v>0.6822884082794189</v>
+        <v>0.6751672029495239</v>
       </c>
       <c r="E28">
-        <v>0.6927162408828735</v>
+        <v>0.7069482207298279</v>
       </c>
       <c r="F28">
-        <v>0.6936872005462646</v>
+        <v>0.6952388882637024</v>
       </c>
       <c r="G28">
-        <v>0.6854515075683594</v>
+        <v>2.541539430618286</v>
       </c>
       <c r="H28">
-        <v>0.6977529525756836</v>
+        <v>5.468022346496582</v>
       </c>
       <c r="I28">
-        <v>0.6944572925567627</v>
+        <v>0.8659636974334717</v>
       </c>
       <c r="J28">
-        <v>0.6847416758537292</v>
+        <v>0.9368861317634583</v>
       </c>
       <c r="K28">
-        <v>0.6728917956352234</v>
+        <v>3.626848459243774</v>
       </c>
       <c r="L28">
-        <v>0.6763312220573425</v>
+        <v>5.751288890838623</v>
       </c>
       <c r="M28">
-        <v>0.6931101679801941</v>
+        <v>5.541309833526611</v>
       </c>
       <c r="N28">
-        <v>0.9972728490829468</v>
+        <v>6.149871349334717</v>
       </c>
       <c r="O28">
-        <v>0.7658618688583374</v>
+        <v>9.410319328308105</v>
       </c>
       <c r="P28">
-        <v>0.692923903465271</v>
+        <v>5.626119613647461</v>
       </c>
       <c r="Q28">
-        <v>0.7057744860649109</v>
+        <v>50</v>
       </c>
       <c r="R28">
-        <v>0.6768922805786133</v>
+        <v>6.02418041229248</v>
       </c>
       <c r="S28">
-        <v>0.735681414604187</v>
+        <v>3.595248222351074</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2085,58 +2085,58 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.6932148933410645</v>
+        <v>0.6939427256584167</v>
       </c>
       <c r="C29">
-        <v>0.6929117441177368</v>
+        <v>0.802944004535675</v>
       </c>
       <c r="D29">
-        <v>0.6930927038192749</v>
+        <v>0.6967533230781555</v>
       </c>
       <c r="E29">
-        <v>0.6927242875099182</v>
+        <v>0.7368803024291992</v>
       </c>
       <c r="F29">
-        <v>0.6964541077613831</v>
+        <v>0.71048504114151</v>
       </c>
       <c r="G29">
-        <v>0.692968487739563</v>
+        <v>0.697866678237915</v>
       </c>
       <c r="H29">
-        <v>0.6977342367172241</v>
+        <v>5.55919075012207</v>
       </c>
       <c r="I29">
-        <v>0.6926859021186829</v>
+        <v>0.934763491153717</v>
       </c>
       <c r="J29">
-        <v>0.6786403656005859</v>
+        <v>0.8025484085083008</v>
       </c>
       <c r="K29">
-        <v>0.6717436909675598</v>
+        <v>0.7186917066574097</v>
       </c>
       <c r="L29">
-        <v>0.6767992377281189</v>
+        <v>5.85999870300293</v>
       </c>
       <c r="M29">
-        <v>0.6932252645492554</v>
+        <v>4.361577033996582</v>
       </c>
       <c r="N29">
-        <v>2.787579774856567</v>
+        <v>6.491466522216797</v>
       </c>
       <c r="O29">
-        <v>0.6862806677818298</v>
+        <v>6.997313976287842</v>
       </c>
       <c r="P29">
-        <v>0.7047597169876099</v>
+        <v>3.768637657165527</v>
       </c>
       <c r="Q29">
-        <v>0.7192782759666443</v>
+        <v>50</v>
       </c>
       <c r="R29">
-        <v>0.6882315874099731</v>
+        <v>5.629776000976562</v>
       </c>
       <c r="S29">
-        <v>0.6824411153793335</v>
+        <v>5.569499492645264</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2144,58 +2144,58 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.6931862235069275</v>
+        <v>0.6945676207542419</v>
       </c>
       <c r="C30">
-        <v>0.6927999258041382</v>
+        <v>0.6951215863227844</v>
       </c>
       <c r="D30">
-        <v>0.6926823258399963</v>
+        <v>0.6930357217788696</v>
       </c>
       <c r="E30">
-        <v>0.6927376985549927</v>
+        <v>2.50346565246582</v>
       </c>
       <c r="F30">
-        <v>0.6938018798828125</v>
+        <v>0.6940626502037048</v>
       </c>
       <c r="G30">
-        <v>0.6929057836532593</v>
+        <v>0.9067537188529968</v>
       </c>
       <c r="H30">
-        <v>0.7096190452575684</v>
+        <v>5.541384696960449</v>
       </c>
       <c r="I30">
-        <v>0.6940158009529114</v>
+        <v>1.935772061347961</v>
       </c>
       <c r="J30">
-        <v>0.6986694931983948</v>
+        <v>0.8703692555427551</v>
       </c>
       <c r="K30">
-        <v>0.6706444621086121</v>
+        <v>5.258352756500244</v>
       </c>
       <c r="L30">
-        <v>0.6844430565834045</v>
+        <v>5.774736881256104</v>
       </c>
       <c r="M30">
-        <v>0.6893056631088257</v>
+        <v>5.316917896270752</v>
       </c>
       <c r="N30">
-        <v>0.7252922058105469</v>
+        <v>6.411515235900879</v>
       </c>
       <c r="O30">
-        <v>0.6732202768325806</v>
+        <v>4.98096752166748</v>
       </c>
       <c r="P30">
-        <v>0.6800039410591125</v>
+        <v>5.115205764770508</v>
       </c>
       <c r="Q30">
-        <v>0.6930646300315857</v>
+        <v>50</v>
       </c>
       <c r="R30">
-        <v>0.6787450313568115</v>
+        <v>3.612263441085815</v>
       </c>
       <c r="S30">
-        <v>0.6971521973609924</v>
+        <v>6.0204176902771</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2203,58 +2203,58 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.6777542233467102</v>
+        <v>0.6863772869110107</v>
       </c>
       <c r="C31">
-        <v>0.6927905678749084</v>
+        <v>0.6759050488471985</v>
       </c>
       <c r="D31">
-        <v>0.6926828026771545</v>
+        <v>0.7674845457077026</v>
       </c>
       <c r="E31">
-        <v>0.6927181482315063</v>
+        <v>1.399374842643738</v>
       </c>
       <c r="F31">
-        <v>0.6939557194709778</v>
+        <v>0.6953710913658142</v>
       </c>
       <c r="G31">
-        <v>0.687461256980896</v>
+        <v>0.8958423733711243</v>
       </c>
       <c r="H31">
-        <v>0.6987096667289734</v>
+        <v>5.077120304107666</v>
       </c>
       <c r="I31">
-        <v>0.6790624856948853</v>
+        <v>3.825856685638428</v>
       </c>
       <c r="J31">
-        <v>0.6748071908950806</v>
+        <v>1.170310497283936</v>
       </c>
       <c r="K31">
-        <v>0.6737674474716187</v>
+        <v>5.804628372192383</v>
       </c>
       <c r="L31">
-        <v>0.6806065440177917</v>
+        <v>5.294422626495361</v>
       </c>
       <c r="M31">
-        <v>0.6757646799087524</v>
+        <v>3.788502931594849</v>
       </c>
       <c r="N31">
-        <v>0.6867218613624573</v>
+        <v>6.04564094543457</v>
       </c>
       <c r="O31">
-        <v>0.6745671033859253</v>
+        <v>4.487917900085449</v>
       </c>
       <c r="P31">
-        <v>0.6714631915092468</v>
+        <v>5.739405632019043</v>
       </c>
       <c r="Q31">
-        <v>0.6771227121353149</v>
+        <v>50</v>
       </c>
       <c r="R31">
-        <v>0.6719643473625183</v>
+        <v>3.488762140274048</v>
       </c>
       <c r="S31">
-        <v>0.6934466958045959</v>
+        <v>6.354252338409424</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2262,58 +2262,58 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.684964120388031</v>
+        <v>0.6765135526657104</v>
       </c>
       <c r="C32">
-        <v>0.6929221153259277</v>
+        <v>1.010506749153137</v>
       </c>
       <c r="D32">
-        <v>0.6936455965042114</v>
+        <v>0.9329477548599243</v>
       </c>
       <c r="E32">
-        <v>0.6928392052650452</v>
+        <v>2.590139627456665</v>
       </c>
       <c r="F32">
-        <v>0.6753031015396118</v>
+        <v>0.6932228207588196</v>
       </c>
       <c r="G32">
-        <v>0.6697536110877991</v>
+        <v>0.8701027035713196</v>
       </c>
       <c r="H32">
-        <v>0.6994559764862061</v>
+        <v>5.586681365966797</v>
       </c>
       <c r="I32">
-        <v>0.6896519064903259</v>
+        <v>3.028071165084839</v>
       </c>
       <c r="J32">
-        <v>0.6807242035865784</v>
+        <v>5.058892250061035</v>
       </c>
       <c r="K32">
-        <v>0.6714909076690674</v>
+        <v>6.097606182098389</v>
       </c>
       <c r="L32">
-        <v>0.7088083028793335</v>
+        <v>4.094039916992188</v>
       </c>
       <c r="M32">
-        <v>0.6715486645698547</v>
+        <v>4.60910701751709</v>
       </c>
       <c r="N32">
-        <v>0.6738161444664001</v>
+        <v>5.645350933074951</v>
       </c>
       <c r="O32">
-        <v>0.6711786985397339</v>
+        <v>2.742535829544067</v>
       </c>
       <c r="P32">
-        <v>0.6704308390617371</v>
+        <v>6.533627986907959</v>
       </c>
       <c r="Q32">
-        <v>0.6727690696716309</v>
+        <v>50</v>
       </c>
       <c r="R32">
-        <v>0.67070072889328</v>
+        <v>5.225978374481201</v>
       </c>
       <c r="S32">
-        <v>0.6852685809135437</v>
+        <v>6.373654842376709</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2321,58 +2321,58 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.6912623643875122</v>
+        <v>0.8188078999519348</v>
       </c>
       <c r="C33">
-        <v>0.6929353475570679</v>
+        <v>0.7001525163650513</v>
       </c>
       <c r="D33">
-        <v>0.683574914932251</v>
+        <v>0.7490604519844055</v>
       </c>
       <c r="E33">
-        <v>0.6927632093429565</v>
+        <v>0.8156615495681763</v>
       </c>
       <c r="F33">
-        <v>0.6761347651481628</v>
+        <v>0.7478042840957642</v>
       </c>
       <c r="G33">
-        <v>0.6714919209480286</v>
+        <v>0.7490411996841431</v>
       </c>
       <c r="H33">
-        <v>0.6937577724456787</v>
+        <v>6.064105987548828</v>
       </c>
       <c r="I33">
-        <v>0.6737616658210754</v>
+        <v>0.7974709272384644</v>
       </c>
       <c r="J33">
-        <v>0.6794523596763611</v>
+        <v>5.753732681274414</v>
       </c>
       <c r="K33">
-        <v>0.6736658215522766</v>
+        <v>5.821680068969727</v>
       </c>
       <c r="L33">
-        <v>0.6849092841148376</v>
+        <v>2.522364616394043</v>
       </c>
       <c r="M33">
-        <v>0.6743203401565552</v>
+        <v>5.422789096832275</v>
       </c>
       <c r="N33">
-        <v>0.6868730783462524</v>
+        <v>5.79867696762085</v>
       </c>
       <c r="O33">
-        <v>0.6756637096405029</v>
+        <v>5.429208278656006</v>
       </c>
       <c r="P33">
-        <v>0.6710864901542664</v>
+        <v>6.099349975585938</v>
       </c>
       <c r="Q33">
-        <v>0.6733412742614746</v>
+        <v>50</v>
       </c>
       <c r="R33">
-        <v>0.6790705919265747</v>
+        <v>2.95660138130188</v>
       </c>
       <c r="S33">
-        <v>0.6896893978118896</v>
+        <v>6.211971282958984</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2380,58 +2380,58 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.6761528849601746</v>
+        <v>0.7554232478141785</v>
       </c>
       <c r="C34">
-        <v>0.6930018067359924</v>
+        <v>0.6994727849960327</v>
       </c>
       <c r="D34">
-        <v>0.6943195462226868</v>
+        <v>0.7075533270835876</v>
       </c>
       <c r="E34">
-        <v>0.6927868723869324</v>
+        <v>0.7767705917358398</v>
       </c>
       <c r="F34">
-        <v>0.6900345087051392</v>
+        <v>2.036025285720825</v>
       </c>
       <c r="G34">
-        <v>0.6702963709831238</v>
+        <v>0.6981090903282166</v>
       </c>
       <c r="H34">
-        <v>0.6948429942131042</v>
+        <v>5.916857719421387</v>
       </c>
       <c r="I34">
-        <v>0.6783234477043152</v>
+        <v>2.771094560623169</v>
       </c>
       <c r="J34">
-        <v>0.6804999709129333</v>
+        <v>6.158908367156982</v>
       </c>
       <c r="K34">
-        <v>0.6706883311271667</v>
+        <v>5.112982273101807</v>
       </c>
       <c r="L34">
-        <v>0.6820617318153381</v>
+        <v>1.576824903488159</v>
       </c>
       <c r="M34">
-        <v>0.6937969326972961</v>
+        <v>5.720125675201416</v>
       </c>
       <c r="N34">
-        <v>0.6890226602554321</v>
+        <v>5.922376155853271</v>
       </c>
       <c r="O34">
-        <v>0.6687160730361938</v>
+        <v>4.790418148040771</v>
       </c>
       <c r="P34">
-        <v>0.670832633972168</v>
+        <v>3.927990913391113</v>
       </c>
       <c r="Q34">
-        <v>0.6822894215583801</v>
+        <v>50</v>
       </c>
       <c r="R34">
-        <v>0.6750574111938477</v>
+        <v>4.540875911712646</v>
       </c>
       <c r="S34">
-        <v>0.689069926738739</v>
+        <v>7.21444034576416</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -2439,58 +2439,58 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.6894106864929199</v>
+        <v>0.7111139893531799</v>
       </c>
       <c r="C35">
-        <v>0.6929529309272766</v>
+        <v>0.6863073110580444</v>
       </c>
       <c r="D35">
-        <v>0.6931396126747131</v>
+        <v>0.8029619455337524</v>
       </c>
       <c r="E35">
-        <v>0.6927724480628967</v>
+        <v>0.9817785620689392</v>
       </c>
       <c r="F35">
-        <v>0.6753526329994202</v>
+        <v>2.241853713989258</v>
       </c>
       <c r="G35">
-        <v>0.671019434928894</v>
+        <v>1.409846663475037</v>
       </c>
       <c r="H35">
-        <v>0.6950157880783081</v>
+        <v>5.591457366943359</v>
       </c>
       <c r="I35">
-        <v>0.6927304267883301</v>
+        <v>2.220407485961914</v>
       </c>
       <c r="J35">
-        <v>0.6723857522010803</v>
+        <v>3.492202520370483</v>
       </c>
       <c r="K35">
-        <v>0.6741542220115662</v>
+        <v>5.215978145599365</v>
       </c>
       <c r="L35">
-        <v>0.6943211555480957</v>
+        <v>1.248721837997437</v>
       </c>
       <c r="M35">
-        <v>0.6927534937858582</v>
+        <v>5.489357471466064</v>
       </c>
       <c r="N35">
-        <v>0.697514533996582</v>
+        <v>3.795422315597534</v>
       </c>
       <c r="O35">
-        <v>0.6737527251243591</v>
+        <v>14.54986572265625</v>
       </c>
       <c r="P35">
-        <v>0.6729739308357239</v>
+        <v>3.003880023956299</v>
       </c>
       <c r="Q35">
-        <v>0.6785706877708435</v>
+        <v>50</v>
       </c>
       <c r="R35">
-        <v>0.6689097285270691</v>
+        <v>2.912433624267578</v>
       </c>
       <c r="S35">
-        <v>0.6933020949363708</v>
+        <v>22.05527496337891</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -2498,58 +2498,58 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.6764627695083618</v>
+        <v>0.7067443132400513</v>
       </c>
       <c r="C36">
-        <v>0.6929799914360046</v>
+        <v>3.114179372787476</v>
       </c>
       <c r="D36">
-        <v>0.6929986476898193</v>
+        <v>0.7048072218894958</v>
       </c>
       <c r="E36">
-        <v>0.6928582191467285</v>
+        <v>0.8104018568992615</v>
       </c>
       <c r="F36">
-        <v>0.6833551526069641</v>
+        <v>2.357244968414307</v>
       </c>
       <c r="G36">
-        <v>0.6709015965461731</v>
+        <v>1.205127954483032</v>
       </c>
       <c r="H36">
-        <v>0.7024725675582886</v>
+        <v>4.440929889678955</v>
       </c>
       <c r="I36">
-        <v>0.6825892329216003</v>
+        <v>2.203189611434937</v>
       </c>
       <c r="J36">
-        <v>0.6724364757537842</v>
+        <v>5.645792961120605</v>
       </c>
       <c r="K36">
-        <v>0.6638026237487793</v>
+        <v>5.622657775878906</v>
       </c>
       <c r="L36">
-        <v>0.6928893327713013</v>
+        <v>3.718126773834229</v>
       </c>
       <c r="M36">
-        <v>0.6926990747451782</v>
+        <v>4.678858280181885</v>
       </c>
       <c r="N36">
-        <v>0.673661470413208</v>
+        <v>5.571823596954346</v>
       </c>
       <c r="O36">
-        <v>0.6715070605278015</v>
+        <v>8.452370643615723</v>
       </c>
       <c r="P36">
-        <v>0.6710913181304932</v>
+        <v>0.8904423117637634</v>
       </c>
       <c r="Q36">
-        <v>0.6748017072677612</v>
+        <v>49.91408538818359</v>
       </c>
       <c r="R36">
-        <v>0.66989666223526</v>
+        <v>2.453202724456787</v>
       </c>
       <c r="S36">
-        <v>0.6930808424949646</v>
+        <v>5.301341533660889</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -2557,58 +2557,58 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.6901487708091736</v>
+        <v>0.9324871897697449</v>
       </c>
       <c r="C37">
-        <v>0.6929634809494019</v>
+        <v>0.6930754780769348</v>
       </c>
       <c r="D37">
-        <v>0.6927623748779297</v>
+        <v>1.46470308303833</v>
       </c>
       <c r="E37">
-        <v>0.6927791237831116</v>
+        <v>0.6986861824989319</v>
       </c>
       <c r="F37">
-        <v>0.6731077432632446</v>
+        <v>1.589746475219727</v>
       </c>
       <c r="G37">
-        <v>0.6708415746688843</v>
+        <v>3.192241430282593</v>
       </c>
       <c r="H37">
-        <v>0.7048206329345703</v>
+        <v>2.672840118408203</v>
       </c>
       <c r="I37">
-        <v>0.6750140190124512</v>
+        <v>1.690335631370544</v>
       </c>
       <c r="J37">
-        <v>0.6749734282493591</v>
+        <v>6.054860591888428</v>
       </c>
       <c r="K37">
-        <v>0.6695261597633362</v>
+        <v>5.044299602508545</v>
       </c>
       <c r="L37">
-        <v>0.6927008032798767</v>
+        <v>3.854953289031982</v>
       </c>
       <c r="M37">
-        <v>0.692699670791626</v>
+        <v>4.530361175537109</v>
       </c>
       <c r="N37">
-        <v>0.6872062087059021</v>
+        <v>6.320409774780273</v>
       </c>
       <c r="O37">
-        <v>0.6734997630119324</v>
+        <v>6.526094436645508</v>
       </c>
       <c r="P37">
-        <v>0.6706153750419617</v>
+        <v>0.9159826040267944</v>
       </c>
       <c r="Q37">
-        <v>0.6744449734687805</v>
+        <v>26.32231712341309</v>
       </c>
       <c r="R37">
-        <v>0.6614641547203064</v>
+        <v>1.472588896751404</v>
       </c>
       <c r="S37">
-        <v>0.6794187426567078</v>
+        <v>14.44979190826416</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -2616,58 +2616,58 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.6824454069137573</v>
+        <v>1.133484482765198</v>
       </c>
       <c r="C38">
-        <v>0.6930233240127563</v>
+        <v>0.6963313817977905</v>
       </c>
       <c r="D38">
-        <v>0.6927499175071716</v>
+        <v>0.6937176585197449</v>
       </c>
       <c r="E38">
-        <v>0.6928917169570923</v>
+        <v>0.7316594123840332</v>
       </c>
       <c r="F38">
-        <v>0.6731142997741699</v>
+        <v>4.354586601257324</v>
       </c>
       <c r="G38">
-        <v>0.6714064478874207</v>
+        <v>1.838168382644653</v>
       </c>
       <c r="H38">
-        <v>0.6825355291366577</v>
+        <v>4.883686065673828</v>
       </c>
       <c r="I38">
-        <v>0.6754888296127319</v>
+        <v>0.8797215223312378</v>
       </c>
       <c r="J38">
-        <v>0.6716047525405884</v>
+        <v>5.998753547668457</v>
       </c>
       <c r="K38">
-        <v>0.6565946340560913</v>
+        <v>3.75725269317627</v>
       </c>
       <c r="L38">
-        <v>0.6926272511482239</v>
+        <v>6.255264282226562</v>
       </c>
       <c r="M38">
-        <v>0.6927509307861328</v>
+        <v>4.268267631530762</v>
       </c>
       <c r="N38">
-        <v>0.6871898174285889</v>
+        <v>5.959295272827148</v>
       </c>
       <c r="O38">
-        <v>0.6709865927696228</v>
+        <v>6.488919258117676</v>
       </c>
       <c r="P38">
-        <v>0.6705582737922668</v>
+        <v>3.333415508270264</v>
       </c>
       <c r="Q38">
-        <v>0.6720921397209167</v>
+        <v>2.380972623825073</v>
       </c>
       <c r="R38">
-        <v>0.6594246029853821</v>
+        <v>3.600910902023315</v>
       </c>
       <c r="S38">
-        <v>0.6760998964309692</v>
+        <v>6.737926006317139</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -2675,58 +2675,58 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.6839346289634705</v>
+        <v>1.982427477836609</v>
       </c>
       <c r="C39">
-        <v>0.6928874850273132</v>
+        <v>0.6933175921440125</v>
       </c>
       <c r="D39">
-        <v>0.6927443742752075</v>
+        <v>0.6978523135185242</v>
       </c>
       <c r="E39">
-        <v>0.6928189992904663</v>
+        <v>0.758480429649353</v>
       </c>
       <c r="F39">
-        <v>0.6738783121109009</v>
+        <v>3.725341796875</v>
       </c>
       <c r="G39">
-        <v>0.6718584299087524</v>
+        <v>2.908147573471069</v>
       </c>
       <c r="H39">
-        <v>0.6959860920906067</v>
+        <v>3.371113300323486</v>
       </c>
       <c r="I39">
-        <v>0.691677987575531</v>
+        <v>3.727961778640747</v>
       </c>
       <c r="J39">
-        <v>0.6715489029884338</v>
+        <v>4.715661525726318</v>
       </c>
       <c r="K39">
-        <v>0.6636351346969604</v>
+        <v>0.8723340630531311</v>
       </c>
       <c r="L39">
-        <v>0.6919506192207336</v>
+        <v>4.008485794067383</v>
       </c>
       <c r="M39">
-        <v>0.6886312365531921</v>
+        <v>2.534797668457031</v>
       </c>
       <c r="N39">
-        <v>0.6886540055274963</v>
+        <v>6.375064849853516</v>
       </c>
       <c r="O39">
-        <v>0.6705334782600403</v>
+        <v>4.66208553314209</v>
       </c>
       <c r="P39">
-        <v>0.6712120175361633</v>
+        <v>1.85971474647522</v>
       </c>
       <c r="Q39">
-        <v>0.6706008911132812</v>
+        <v>6.423800468444824</v>
       </c>
       <c r="R39">
-        <v>0.6644746065139771</v>
+        <v>4.871537208557129</v>
       </c>
       <c r="S39">
-        <v>0.6694061756134033</v>
+        <v>6.208303928375244</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -2734,58 +2734,58 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.6798505187034607</v>
+        <v>0.7459336519241333</v>
       </c>
       <c r="C40">
-        <v>0.6927762627601624</v>
+        <v>0.8701921105384827</v>
       </c>
       <c r="D40">
-        <v>0.6927438378334045</v>
+        <v>0.7159242630004883</v>
       </c>
       <c r="E40">
-        <v>0.6929229497909546</v>
+        <v>0.708604097366333</v>
       </c>
       <c r="F40">
-        <v>0.7186077833175659</v>
+        <v>4.497866153717041</v>
       </c>
       <c r="G40">
-        <v>0.6725689768791199</v>
+        <v>3.591685771942139</v>
       </c>
       <c r="H40">
-        <v>0.7063612937927246</v>
+        <v>3.036513090133667</v>
       </c>
       <c r="I40">
-        <v>0.6764047145843506</v>
+        <v>3.852725028991699</v>
       </c>
       <c r="J40">
-        <v>0.6726709604263306</v>
+        <v>3.133816719055176</v>
       </c>
       <c r="K40">
-        <v>0.6585156917572021</v>
+        <v>3.09601616859436</v>
       </c>
       <c r="L40">
-        <v>0.692069411277771</v>
+        <v>4.54324197769165</v>
       </c>
       <c r="M40">
-        <v>0.6729953289031982</v>
+        <v>1.762337327003479</v>
       </c>
       <c r="N40">
-        <v>0.6883739233016968</v>
+        <v>6.220867156982422</v>
       </c>
       <c r="O40">
-        <v>0.6714340448379517</v>
+        <v>5.546519756317139</v>
       </c>
       <c r="P40">
-        <v>0.6710386872291565</v>
+        <v>5.651907444000244</v>
       </c>
       <c r="Q40">
-        <v>0.6715822219848633</v>
+        <v>6.387193202972412</v>
       </c>
       <c r="R40">
-        <v>0.6601554751396179</v>
+        <v>5.600172519683838</v>
       </c>
       <c r="S40">
-        <v>0.6772888898849487</v>
+        <v>6.2850341796875</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -2793,58 +2793,58 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.682086706161499</v>
+        <v>1.286106824874878</v>
       </c>
       <c r="C41">
-        <v>0.6927509903907776</v>
+        <v>0.8131669759750366</v>
       </c>
       <c r="D41">
-        <v>0.6927366852760315</v>
+        <v>0.7615892291069031</v>
       </c>
       <c r="E41">
-        <v>0.6928026676177979</v>
+        <v>0.6914433836936951</v>
       </c>
       <c r="F41">
-        <v>0.6788840889930725</v>
+        <v>3.066143274307251</v>
       </c>
       <c r="G41">
-        <v>0.6725441217422485</v>
+        <v>1.182760119438171</v>
       </c>
       <c r="H41">
-        <v>0.7142597436904907</v>
+        <v>5.39760160446167</v>
       </c>
       <c r="I41">
-        <v>0.6747705936431885</v>
+        <v>4.048379898071289</v>
       </c>
       <c r="J41">
-        <v>0.667771577835083</v>
+        <v>1.251568078994751</v>
       </c>
       <c r="K41">
-        <v>0.6720239520072937</v>
+        <v>6.873940944671631</v>
       </c>
       <c r="L41">
-        <v>0.6955962181091309</v>
+        <v>5.022162914276123</v>
       </c>
       <c r="M41">
-        <v>0.6721111536026001</v>
+        <v>1.43674910068512</v>
       </c>
       <c r="N41">
-        <v>0.6748401522636414</v>
+        <v>6.062942028045654</v>
       </c>
       <c r="O41">
-        <v>0.6704892516136169</v>
+        <v>5.640270709991455</v>
       </c>
       <c r="P41">
-        <v>0.6721078753471375</v>
+        <v>5.587556838989258</v>
       </c>
       <c r="Q41">
-        <v>0.6707549095153809</v>
+        <v>7.475197315216064</v>
       </c>
       <c r="R41">
-        <v>0.669796347618103</v>
+        <v>10.57506942749023</v>
       </c>
       <c r="S41">
-        <v>0.6629286408424377</v>
+        <v>6.610836505889893</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -2852,58 +2852,58 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.6794058680534363</v>
+        <v>0.8083673715591431</v>
       </c>
       <c r="C42">
-        <v>0.692724883556366</v>
+        <v>0.7425891160964966</v>
       </c>
       <c r="D42">
-        <v>0.6927309036254883</v>
+        <v>0.8022621870040894</v>
       </c>
       <c r="E42">
-        <v>0.6927834153175354</v>
+        <v>0.7385560870170593</v>
       </c>
       <c r="F42">
-        <v>0.6738869547843933</v>
+        <v>0.8021453022956848</v>
       </c>
       <c r="G42">
-        <v>0.6721099019050598</v>
+        <v>0.7269957065582275</v>
       </c>
       <c r="H42">
-        <v>0.7009959816932678</v>
+        <v>5.653114795684814</v>
       </c>
       <c r="I42">
-        <v>0.6934252977371216</v>
+        <v>4.400485992431641</v>
       </c>
       <c r="J42">
-        <v>0.6727803349494934</v>
+        <v>2.559745311737061</v>
       </c>
       <c r="K42">
-        <v>0.6698051691055298</v>
+        <v>6.184361457824707</v>
       </c>
       <c r="L42">
-        <v>0.6926836371421814</v>
+        <v>4.834231376647949</v>
       </c>
       <c r="M42">
-        <v>0.6705236434936523</v>
+        <v>3.07829475402832</v>
       </c>
       <c r="N42">
-        <v>0.6960306167602539</v>
+        <v>5.713016033172607</v>
       </c>
       <c r="O42">
-        <v>0.6707324981689453</v>
+        <v>5.28864860534668</v>
       </c>
       <c r="P42">
-        <v>0.6717036962509155</v>
+        <v>5.558673858642578</v>
       </c>
       <c r="Q42">
-        <v>0.6713708639144897</v>
+        <v>11.72537326812744</v>
       </c>
       <c r="R42">
-        <v>0.6622434854507446</v>
+        <v>4.34890604019165</v>
       </c>
       <c r="S42">
-        <v>0.6587605476379395</v>
+        <v>6.084983825683594</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -2911,58 +2911,58 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.6791882514953613</v>
+        <v>0.69544917345047</v>
       </c>
       <c r="C43">
-        <v>0.6927057504653931</v>
+        <v>0.6987596154212952</v>
       </c>
       <c r="D43">
-        <v>0.6927242875099182</v>
+        <v>0.6972383856773376</v>
       </c>
       <c r="E43">
-        <v>0.6927360892295837</v>
+        <v>0.6988281607627869</v>
       </c>
       <c r="F43">
-        <v>0.6708886027336121</v>
+        <v>2.427632331848145</v>
       </c>
       <c r="G43">
-        <v>0.6711463928222656</v>
+        <v>0.7015514969825745</v>
       </c>
       <c r="H43">
-        <v>0.6873477101325989</v>
+        <v>5.530336856842041</v>
       </c>
       <c r="I43">
-        <v>0.6806026101112366</v>
+        <v>4.070791244506836</v>
       </c>
       <c r="J43">
-        <v>0.6719735264778137</v>
+        <v>3.703870534896851</v>
       </c>
       <c r="K43">
-        <v>0.6572394371032715</v>
+        <v>5.575053215026855</v>
       </c>
       <c r="L43">
-        <v>0.6938106417655945</v>
+        <v>4.466983795166016</v>
       </c>
       <c r="M43">
-        <v>0.6719931960105896</v>
+        <v>3.773037672042847</v>
       </c>
       <c r="N43">
-        <v>0.6686819195747375</v>
+        <v>5.62562894821167</v>
       </c>
       <c r="O43">
-        <v>0.6652451753616333</v>
+        <v>4.357723236083984</v>
       </c>
       <c r="P43">
-        <v>0.6709069609642029</v>
+        <v>1.842761635780334</v>
       </c>
       <c r="Q43">
-        <v>0.6706615090370178</v>
+        <v>6.734405040740967</v>
       </c>
       <c r="R43">
-        <v>0.6639007329940796</v>
+        <v>2.944228410720825</v>
       </c>
       <c r="S43">
-        <v>0.6586721539497375</v>
+        <v>5.516835689544678</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -2970,58 +2970,58 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.6818315386772156</v>
+        <v>0.6949277520179749</v>
       </c>
       <c r="C44">
-        <v>0.6927269101142883</v>
+        <v>0.7469034194946289</v>
       </c>
       <c r="D44">
-        <v>0.6927314400672913</v>
+        <v>0.6947961449623108</v>
       </c>
       <c r="E44">
-        <v>0.6927188038825989</v>
+        <v>1.278073191642761</v>
       </c>
       <c r="F44">
-        <v>0.6744738817214966</v>
+        <v>0.7016904354095459</v>
       </c>
       <c r="G44">
-        <v>0.6711578369140625</v>
+        <v>0.7185844779014587</v>
       </c>
       <c r="H44">
-        <v>0.6851933598518372</v>
+        <v>5.139698028564453</v>
       </c>
       <c r="I44">
-        <v>0.6874402165412903</v>
+        <v>1.097542405128479</v>
       </c>
       <c r="J44">
-        <v>0.670816957950592</v>
+        <v>5.758956432342529</v>
       </c>
       <c r="K44">
-        <v>0.6678721904754639</v>
+        <v>5.245933532714844</v>
       </c>
       <c r="L44">
-        <v>0.689575731754303</v>
+        <v>2.914756298065186</v>
       </c>
       <c r="M44">
-        <v>0.6706696152687073</v>
+        <v>3.778280973434448</v>
       </c>
       <c r="N44">
-        <v>0.6733328700065613</v>
+        <v>6.29721736907959</v>
       </c>
       <c r="O44">
-        <v>0.6718069314956665</v>
+        <v>3.863052606582642</v>
       </c>
       <c r="P44">
-        <v>0.6709907650947571</v>
+        <v>5.860067844390869</v>
       </c>
       <c r="Q44">
-        <v>0.6718151569366455</v>
+        <v>7.184961795806885</v>
       </c>
       <c r="R44">
-        <v>0.6641170382499695</v>
+        <v>2.700773000717163</v>
       </c>
       <c r="S44">
-        <v>0.6590478420257568</v>
+        <v>4.053078174591064</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3029,58 +3029,58 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.6830587387084961</v>
+        <v>0.693166971206665</v>
       </c>
       <c r="C45">
-        <v>0.6927048563957214</v>
+        <v>0.8079023957252502</v>
       </c>
       <c r="D45">
-        <v>0.6926819682121277</v>
+        <v>0.6757827997207642</v>
       </c>
       <c r="E45">
-        <v>0.6927111148834229</v>
+        <v>0.7596269845962524</v>
       </c>
       <c r="F45">
-        <v>0.6711605191230774</v>
+        <v>0.7000539302825928</v>
       </c>
       <c r="G45">
-        <v>0.6708029508590698</v>
+        <v>1.213856816291809</v>
       </c>
       <c r="H45">
-        <v>0.6851840019226074</v>
+        <v>3.35113787651062</v>
       </c>
       <c r="I45">
-        <v>0.6891063451766968</v>
+        <v>3.645123720169067</v>
       </c>
       <c r="J45">
-        <v>0.6709650754928589</v>
+        <v>5.707420825958252</v>
       </c>
       <c r="K45">
-        <v>0.6668270826339722</v>
+        <v>3.967634677886963</v>
       </c>
       <c r="L45">
-        <v>0.6849551796913147</v>
+        <v>5.179318904876709</v>
       </c>
       <c r="M45">
-        <v>0.6646811366081238</v>
+        <v>3.489013195037842</v>
       </c>
       <c r="N45">
-        <v>0.6774163842201233</v>
+        <v>6.633963108062744</v>
       </c>
       <c r="O45">
-        <v>0.671150803565979</v>
+        <v>5.254118919372559</v>
       </c>
       <c r="P45">
-        <v>0.6706067323684692</v>
+        <v>5.919538974761963</v>
       </c>
       <c r="Q45">
-        <v>0.6704649925231934</v>
+        <v>7.072487831115723</v>
       </c>
       <c r="R45">
-        <v>0.6583594083786011</v>
+        <v>4.794847011566162</v>
       </c>
       <c r="S45">
-        <v>0.6682476997375488</v>
+        <v>6.011946678161621</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3088,58 +3088,58 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.6835238337516785</v>
+        <v>0.7061856389045715</v>
       </c>
       <c r="C46">
-        <v>0.6927184462547302</v>
+        <v>0.7722141146659851</v>
       </c>
       <c r="D46">
-        <v>0.6926952600479126</v>
+        <v>1.009496331214905</v>
       </c>
       <c r="E46">
-        <v>0.6927084922790527</v>
+        <v>0.6983354091644287</v>
       </c>
       <c r="F46">
-        <v>0.6744153499603271</v>
+        <v>0.7137793898582458</v>
       </c>
       <c r="G46">
-        <v>0.6709474325180054</v>
+        <v>0.694142758846283</v>
       </c>
       <c r="H46">
-        <v>0.6805801391601562</v>
+        <v>0.7486003637313843</v>
       </c>
       <c r="I46">
-        <v>0.6755565404891968</v>
+        <v>2.034952640533447</v>
       </c>
       <c r="J46">
-        <v>0.6622769832611084</v>
+        <v>5.794667720794678</v>
       </c>
       <c r="K46">
-        <v>0.6650172472000122</v>
+        <v>3.787027835845947</v>
       </c>
       <c r="L46">
-        <v>0.6765890717506409</v>
+        <v>4.805411338806152</v>
       </c>
       <c r="M46">
-        <v>0.6598871350288391</v>
+        <v>0.8406935334205627</v>
       </c>
       <c r="N46">
-        <v>0.6805610656738281</v>
+        <v>6.135562896728516</v>
       </c>
       <c r="O46">
-        <v>0.6655429601669312</v>
+        <v>6.072919368743896</v>
       </c>
       <c r="P46">
-        <v>0.6704626679420471</v>
+        <v>6.137590408325195</v>
       </c>
       <c r="Q46">
-        <v>0.6712688207626343</v>
+        <v>6.822128772735596</v>
       </c>
       <c r="R46">
-        <v>0.6633672714233398</v>
+        <v>5.135215282440186</v>
       </c>
       <c r="S46">
-        <v>0.6580967307090759</v>
+        <v>6.737570762634277</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3147,58 +3147,58 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.6830372214317322</v>
+        <v>0.6939817070960999</v>
       </c>
       <c r="C47">
-        <v>0.6927022933959961</v>
+        <v>0.7380308508872986</v>
       </c>
       <c r="D47">
-        <v>0.692761242389679</v>
+        <v>1.282952904701233</v>
       </c>
       <c r="E47">
-        <v>0.6927082538604736</v>
+        <v>0.7160684466362</v>
       </c>
       <c r="F47">
-        <v>0.670962929725647</v>
+        <v>0.926808774471283</v>
       </c>
       <c r="G47">
-        <v>0.6707591414451599</v>
+        <v>0.844045102596283</v>
       </c>
       <c r="H47">
-        <v>0.6815544366836548</v>
+        <v>0.703289270401001</v>
       </c>
       <c r="I47">
-        <v>0.6774788498878479</v>
+        <v>0.8195669054985046</v>
       </c>
       <c r="J47">
-        <v>0.6602197885513306</v>
+        <v>5.354400157928467</v>
       </c>
       <c r="K47">
-        <v>0.664780855178833</v>
+        <v>5.548179626464844</v>
       </c>
       <c r="L47">
-        <v>0.6821066737174988</v>
+        <v>5.260529518127441</v>
       </c>
       <c r="M47">
-        <v>0.673829972743988</v>
+        <v>3.113246917724609</v>
       </c>
       <c r="N47">
-        <v>0.6932820677757263</v>
+        <v>8.715649604797363</v>
       </c>
       <c r="O47">
-        <v>0.6609724164009094</v>
+        <v>5.755527019500732</v>
       </c>
       <c r="P47">
-        <v>0.6703880429267883</v>
+        <v>5.732285022735596</v>
       </c>
       <c r="Q47">
-        <v>0.6704053282737732</v>
+        <v>6.778177738189697</v>
       </c>
       <c r="R47">
-        <v>0.6611751914024353</v>
+        <v>5.359402656555176</v>
       </c>
       <c r="S47">
-        <v>0.6595596671104431</v>
+        <v>5.587275505065918</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3206,58 +3206,58 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.6830334663391113</v>
+        <v>0.7150176763534546</v>
       </c>
       <c r="C48">
-        <v>0.692712664604187</v>
+        <v>0.7099052667617798</v>
       </c>
       <c r="D48">
-        <v>0.6927109956741333</v>
+        <v>0.8386873006820679</v>
       </c>
       <c r="E48">
-        <v>0.6927023530006409</v>
+        <v>0.7780615091323853</v>
       </c>
       <c r="F48">
-        <v>0.6709177494049072</v>
+        <v>0.730770468711853</v>
       </c>
       <c r="G48">
-        <v>0.6708133220672607</v>
+        <v>0.7158294320106506</v>
       </c>
       <c r="H48">
-        <v>0.6794586181640625</v>
+        <v>0.811315655708313</v>
       </c>
       <c r="I48">
-        <v>0.6820189356803894</v>
+        <v>4.78642749786377</v>
       </c>
       <c r="J48">
-        <v>0.6580811738967896</v>
+        <v>3.306444644927979</v>
       </c>
       <c r="K48">
-        <v>0.6619343757629395</v>
+        <v>6.059277534484863</v>
       </c>
       <c r="L48">
-        <v>0.677573025226593</v>
+        <v>4.476891040802002</v>
       </c>
       <c r="M48">
-        <v>0.6687384247779846</v>
+        <v>6.208935737609863</v>
       </c>
       <c r="N48">
-        <v>0.6760788559913635</v>
+        <v>6.014995574951172</v>
       </c>
       <c r="O48">
-        <v>0.6654170751571655</v>
+        <v>5.746214866638184</v>
       </c>
       <c r="P48">
-        <v>0.6703745126724243</v>
+        <v>4.649799346923828</v>
       </c>
       <c r="Q48">
-        <v>0.6711077094078064</v>
+        <v>6.304269313812256</v>
       </c>
       <c r="R48">
-        <v>0.6609557867050171</v>
+        <v>4.94069242477417</v>
       </c>
       <c r="S48">
-        <v>0.6581165790557861</v>
+        <v>5.510740280151367</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3265,58 +3265,58 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.6822572350502014</v>
+        <v>0.7653777599334717</v>
       </c>
       <c r="C49">
-        <v>0.692699134349823</v>
+        <v>0.6947868466377258</v>
       </c>
       <c r="D49">
-        <v>0.6927341818809509</v>
+        <v>0.8965851664543152</v>
       </c>
       <c r="E49">
-        <v>0.6927033662796021</v>
+        <v>0.7041028738021851</v>
       </c>
       <c r="F49">
-        <v>0.6709986925125122</v>
+        <v>0.693602442741394</v>
       </c>
       <c r="G49">
-        <v>0.6705462336540222</v>
+        <v>1.013680815696716</v>
       </c>
       <c r="H49">
-        <v>0.6810564398765564</v>
+        <v>0.6961089968681335</v>
       </c>
       <c r="I49">
-        <v>0.6806713938713074</v>
+        <v>4.498266220092773</v>
       </c>
       <c r="J49">
-        <v>0.6664906740188599</v>
+        <v>0.8511521816253662</v>
       </c>
       <c r="K49">
-        <v>0.6569903492927551</v>
+        <v>5.745205879211426</v>
       </c>
       <c r="L49">
-        <v>0.6800169944763184</v>
+        <v>7.267099380493164</v>
       </c>
       <c r="M49">
-        <v>0.6651300191879272</v>
+        <v>6.130860328674316</v>
       </c>
       <c r="N49">
-        <v>0.6768747568130493</v>
+        <v>5.464625835418701</v>
       </c>
       <c r="O49">
-        <v>0.6661723852157593</v>
+        <v>6.336784839630127</v>
       </c>
       <c r="P49">
-        <v>0.6704950332641602</v>
+        <v>3.00624418258667</v>
       </c>
       <c r="Q49">
-        <v>0.6705199480056763</v>
+        <v>6.061096668243408</v>
       </c>
       <c r="R49">
-        <v>0.6640413999557495</v>
+        <v>5.930606365203857</v>
       </c>
       <c r="S49">
-        <v>0.6583154797554016</v>
+        <v>4.738710403442383</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -3324,58 +3324,58 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6801387667655945</v>
+        <v>0.6931909918785095</v>
       </c>
       <c r="C50">
-        <v>0.6927106976509094</v>
+        <v>0.7219785451889038</v>
       </c>
       <c r="D50">
-        <v>0.692704439163208</v>
+        <v>0.6941851377487183</v>
       </c>
       <c r="E50">
-        <v>0.6926969885826111</v>
+        <v>0.9616330862045288</v>
       </c>
       <c r="F50">
-        <v>0.6710363030433655</v>
+        <v>3.707827091217041</v>
       </c>
       <c r="G50">
-        <v>0.6706157326698303</v>
+        <v>0.7277898192405701</v>
       </c>
       <c r="H50">
-        <v>0.6823009252548218</v>
+        <v>0.6880063414573669</v>
       </c>
       <c r="I50">
-        <v>0.6790249943733215</v>
+        <v>5.577792167663574</v>
       </c>
       <c r="J50">
-        <v>0.6663390398025513</v>
+        <v>3.539737939834595</v>
       </c>
       <c r="K50">
-        <v>0.6597145795822144</v>
+        <v>5.531051158905029</v>
       </c>
       <c r="L50">
-        <v>0.6718131899833679</v>
+        <v>6.118633270263672</v>
       </c>
       <c r="M50">
-        <v>0.6596198678016663</v>
+        <v>4.271574020385742</v>
       </c>
       <c r="N50">
-        <v>0.6806049942970276</v>
+        <v>8.57321834564209</v>
       </c>
       <c r="O50">
-        <v>0.6668650507926941</v>
+        <v>8.189116477966309</v>
       </c>
       <c r="P50">
-        <v>0.6702620387077332</v>
+        <v>4.579285144805908</v>
       </c>
       <c r="Q50">
-        <v>0.6707670092582703</v>
+        <v>6.580875396728516</v>
       </c>
       <c r="R50">
-        <v>0.6654873490333557</v>
+        <v>4.034470081329346</v>
       </c>
       <c r="S50">
-        <v>0.6664061546325684</v>
+        <v>5.987648963928223</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -3383,58 +3383,58 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.6788830161094666</v>
+        <v>0.6985259056091309</v>
       </c>
       <c r="C51">
-        <v>0.6927024126052856</v>
+        <v>0.6931695342063904</v>
       </c>
       <c r="D51">
-        <v>0.69272381067276</v>
+        <v>0.6929596662521362</v>
       </c>
       <c r="E51">
-        <v>0.6927080750465393</v>
+        <v>0.7563767433166504</v>
       </c>
       <c r="F51">
-        <v>0.670856237411499</v>
+        <v>1.480579137802124</v>
       </c>
       <c r="G51">
-        <v>0.6704351305961609</v>
+        <v>1.023778796195984</v>
       </c>
       <c r="H51">
-        <v>0.6800823211669922</v>
+        <v>1.083808064460754</v>
       </c>
       <c r="I51">
-        <v>0.6793534159660339</v>
+        <v>4.750435352325439</v>
       </c>
       <c r="J51">
-        <v>0.6659996509552002</v>
+        <v>3.924356937408447</v>
       </c>
       <c r="K51">
-        <v>0.6595785021781921</v>
+        <v>2.72411036491394</v>
       </c>
       <c r="L51">
-        <v>0.6609688997268677</v>
+        <v>6.536590099334717</v>
       </c>
       <c r="M51">
-        <v>0.6623192429542542</v>
+        <v>2.787471771240234</v>
       </c>
       <c r="N51">
-        <v>0.6712039709091187</v>
+        <v>5.735366344451904</v>
       </c>
       <c r="O51">
-        <v>0.6637300252914429</v>
+        <v>6.191868305206299</v>
       </c>
       <c r="P51">
-        <v>0.6701869368553162</v>
+        <v>5.178318977355957</v>
       </c>
       <c r="Q51">
-        <v>0.6705974936485291</v>
+        <v>6.312627792358398</v>
       </c>
       <c r="R51">
-        <v>0.6658633351325989</v>
+        <v>3.718905687332153</v>
       </c>
       <c r="S51">
-        <v>0.6612803339958191</v>
+        <v>5.823604583740234</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -3442,58 +3442,58 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.6765763759613037</v>
+        <v>0.7140172719955444</v>
       </c>
       <c r="C52">
-        <v>0.6927530765533447</v>
+        <v>0.8190179467201233</v>
       </c>
       <c r="D52">
-        <v>0.692702054977417</v>
+        <v>0.7076718211174011</v>
       </c>
       <c r="E52">
-        <v>0.6926981806755066</v>
+        <v>3.835302829742432</v>
       </c>
       <c r="F52">
-        <v>0.6705915331840515</v>
+        <v>0.9094383120536804</v>
       </c>
       <c r="G52">
-        <v>0.6704041957855225</v>
+        <v>5.004129409790039</v>
       </c>
       <c r="H52">
-        <v>0.6820269823074341</v>
+        <v>0.6937310695648193</v>
       </c>
       <c r="I52">
-        <v>0.6795854568481445</v>
+        <v>2.041508197784424</v>
       </c>
       <c r="J52">
-        <v>0.6613888740539551</v>
+        <v>2.980595588684082</v>
       </c>
       <c r="K52">
-        <v>0.6572396755218506</v>
+        <v>1.454092144966125</v>
       </c>
       <c r="L52">
-        <v>0.66187983751297</v>
+        <v>5.715881824493408</v>
       </c>
       <c r="M52">
-        <v>0.6633177399635315</v>
+        <v>2.486607074737549</v>
       </c>
       <c r="N52">
-        <v>0.6821819543838501</v>
+        <v>4.282302856445312</v>
       </c>
       <c r="O52">
-        <v>0.6611822247505188</v>
+        <v>5.831940174102783</v>
       </c>
       <c r="P52">
-        <v>0.6703352928161621</v>
+        <v>4.980598449707031</v>
       </c>
       <c r="Q52">
-        <v>0.6710201501846313</v>
+        <v>6.576159000396729</v>
       </c>
       <c r="R52">
-        <v>0.6649381518363953</v>
+        <v>2.90514087677002</v>
       </c>
       <c r="S52">
-        <v>0.6628668308258057</v>
+        <v>5.612360954284668</v>
       </c>
     </row>
   </sheetData>
